--- a/Gestion/Excel Prévisionnel.xlsx
+++ b/Gestion/Excel Prévisionnel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760"/>
@@ -11,7 +11,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Implémentation des blocs - 6h</t>
-  </si>
-  <si>
-    <t>Implémentation des ennemis - 4h</t>
   </si>
   <si>
     <t>LA : 100%</t>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>VF : 20%, LA : 20%, FB : 20%, LT : 20%, FD : 20%</t>
+  </si>
+  <si>
+    <t>Implémentation des ennemis - 6h</t>
   </si>
 </sst>
 </file>
@@ -198,21 +198,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -220,6 +205,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,16 +572,16 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="10"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -601,20 +601,20 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="10"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -632,7 +632,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="10"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -640,10 +640,10 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -661,7 +661,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -669,10 +669,10 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -690,7 +690,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -698,16 +698,16 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -721,7 +721,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -733,28 +733,28 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
+      <c r="H7" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -772,24 +772,24 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="5" t="s">
-        <v>29</v>
+      <c r="N8" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="4" t="s">
-        <v>24</v>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="8" t="s">
+        <v>23</v>
       </c>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="8"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -822,14 +822,14 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="4" t="s">
-        <v>13</v>
+      <c r="L9" s="8" t="s">
+        <v>35</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -837,7 +837,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="1"/>
@@ -872,14 +872,14 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="5" t="s">
-        <v>14</v>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -887,12 +887,12 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="4" t="s">
-        <v>23</v>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="8" t="s">
+        <v>22</v>
       </c>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -924,12 +924,12 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="4" t="s">
-        <v>15</v>
+      <c r="L11" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -939,10 +939,10 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -962,7 +962,7 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -974,12 +974,12 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="5" t="s">
-        <v>16</v>
+      <c r="L12" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -989,7 +989,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="5"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -1014,18 +1014,18 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="4" t="s">
-        <v>17</v>
+      <c r="L13" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1037,12 +1037,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="4" t="s">
-        <v>22</v>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -1072,10 +1072,10 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="4" t="s">
-        <v>18</v>
+      <c r="L14" s="8" t="s">
+        <v>17</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1087,10 +1087,10 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -1116,20 +1116,20 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5" t="s">
-        <v>29</v>
+      <c r="M15" s="9"/>
+      <c r="N15" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="4"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1140,7 +1140,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -1170,35 +1170,35 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="5" t="s">
-        <v>31</v>
+      <c r="H16" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="5" t="s">
-        <v>30</v>
+      <c r="N16" s="7" t="s">
+        <v>29</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="O16" s="8"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="4" t="s">
-        <v>34</v>
+      <c r="U16" s="8" t="s">
+        <v>33</v>
       </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="4" t="s">
-        <v>21</v>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -1237,16 +1237,16 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="5" t="s">
-        <v>35</v>
+      <c r="U17" s="7" t="s">
+        <v>34</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -1289,21 +1289,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="4" t="s">
-        <v>25</v>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="8" t="s">
+        <v>24</v>
       </c>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
@@ -1337,26 +1337,26 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="4" t="s">
-        <v>27</v>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="8" t="s">
+        <v>26</v>
       </c>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
     </row>
@@ -1385,26 +1385,26 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="4" t="s">
-        <v>26</v>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
     </row>
@@ -1433,19 +1433,19 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
@@ -1479,7 +1479,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1506,7 +1506,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="10"/>
+      <c r="Y23" s="5"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1533,7 +1533,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="10"/>
+      <c r="Y24" s="5"/>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1560,7 +1560,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="10"/>
+      <c r="Y25" s="5"/>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1587,7 +1587,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="10"/>
+      <c r="Y26" s="5"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1614,7 +1614,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="10"/>
+      <c r="Y27" s="5"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1641,7 +1641,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="10"/>
+      <c r="Y28" s="5"/>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1668,7 +1668,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="10"/>
+      <c r="Y29" s="5"/>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -1695,7 +1695,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="10"/>
+      <c r="Y30" s="5"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1722,7 +1722,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="10"/>
+      <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1749,7 +1749,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1776,7 +1776,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="10"/>
+      <c r="Y33" s="5"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1803,7 +1803,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="10"/>
+      <c r="Y34" s="5"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1830,7 +1830,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="10"/>
+      <c r="Y35" s="5"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -1857,7 +1857,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="10"/>
+      <c r="Y36" s="5"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -1884,7 +1884,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="10"/>
+      <c r="Y37" s="5"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1911,7 +1911,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="10"/>
+      <c r="Y38" s="5"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -1938,7 +1938,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="10"/>
+      <c r="Y39" s="5"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -1965,7 +1965,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="10"/>
+      <c r="Y40" s="5"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -1992,7 +1992,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="10"/>
+      <c r="Y41" s="5"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -2019,7 +2019,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="10"/>
+      <c r="Y42" s="5"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -2046,7 +2046,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="10"/>
+      <c r="Y43" s="5"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -2073,7 +2073,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="10"/>
+      <c r="Y44" s="5"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
@@ -2100,7 +2100,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="10"/>
+      <c r="Y45" s="5"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -2127,7 +2127,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="10"/>
+      <c r="Y46" s="5"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2154,7 +2154,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="10"/>
+      <c r="Y47" s="5"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -2181,7 +2181,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="10"/>
+      <c r="Y48" s="5"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -2208,7 +2208,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="10"/>
+      <c r="Y49" s="5"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -7243,35 +7243,7 @@
       <c r="O345" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N8:T8"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="Z19:AK19"/>
-    <mergeCell ref="Z18:AK18"/>
-    <mergeCell ref="Z21:AK21"/>
-    <mergeCell ref="Z20:AK20"/>
-    <mergeCell ref="AL20:AP20"/>
-    <mergeCell ref="AL19:AP19"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F5:G5"/>
+  <mergeCells count="41">
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="L9:O9"/>
@@ -7281,8 +7253,38 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="Z19:AK19"/>
+    <mergeCell ref="Z18:AK18"/>
+    <mergeCell ref="Z21:AK21"/>
+    <mergeCell ref="Z20:AK20"/>
+    <mergeCell ref="AL20:AP20"/>
+    <mergeCell ref="AL19:AP19"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N8:T8"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L11:O11"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
